--- a/components/download_templates/templates/Kayakalp_PHC_Bedded_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kayakalp_PHC_Bedded_Excel_Import_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp formats\Kaykalp Excel Import Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FE5D8-FAE6-426F-9DC4-571915A27E5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA8C39-2842-41BE-B7FA-55FEAA07A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A526CD4-7E4D-44CB-86F3-B00760FCF87D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A526CD4-7E4D-44CB-86F3-B00760FCF87D}"/>
   </bookViews>
   <sheets>
     <sheet name="PHC Bedded Quarterly Dataset" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1579,587 +1587,585 @@
     <t>Medicines are arranged systematically</t>
   </si>
   <si>
-    <t xml:space="preserve">Check all the shelves/racks containing medicines  are labelled in  pharmacy and drug store
+    <t>E3.2</t>
+  </si>
+  <si>
+    <t>Cold storage equipment's are clean and managed properly</t>
+  </si>
+  <si>
+    <t>E3.3</t>
+  </si>
+  <si>
+    <t>Cold storage equipment are not used for storing other items, than vaccine .</t>
+  </si>
+  <si>
+    <t>Check eatables are not kept in ILR/Deep Freezers</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Security Services</t>
+  </si>
+  <si>
+    <t>E4.1</t>
+  </si>
+  <si>
+    <t>One Security Guard per shift</t>
+  </si>
+  <si>
+    <t>Check for the presence of one security personnel at PHC every shift</t>
+  </si>
+  <si>
+    <t>E4.2</t>
+  </si>
+  <si>
+    <t>Departments are locked after working hours</t>
+  </si>
+  <si>
+    <t>Departments like OPD, Lab, Administrative office etc. are locked after working hours.</t>
+  </si>
+  <si>
+    <t>E4.3</t>
+  </si>
+  <si>
+    <t>Security personal reprimands attendants, who found indulging into unhygienic behaviour - spitting, open field urination &amp; defecation, etc.</t>
+  </si>
+  <si>
+    <t>Check, if security personnel watch behaviour of patients and their attendants, particularly in respect of hygiene, sanitation, etc. and take appropriate actions, as deemed.</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Outreach Services</t>
+  </si>
+  <si>
+    <t>E5.1</t>
+  </si>
+  <si>
+    <t>Biomedical waste generated during outreach session are transported to the PHC on the same day</t>
+  </si>
+  <si>
+    <t>Check the records and ask staff</t>
+  </si>
+  <si>
+    <t>E5.2</t>
+  </si>
+  <si>
+    <t>ASHA's are promoting cleanliness and hygiene practices</t>
+  </si>
+  <si>
+    <t>Check for ASHA's counsel mothers for hand hygiene, toilets, water sanitation etc.</t>
+  </si>
+  <si>
+    <t>E5.3</t>
+  </si>
+  <si>
+    <t>Medical officers monitor cleanliness and hygiene of outreach sessions and sub centres.</t>
+  </si>
+  <si>
+    <t>RR/ SI</t>
+  </si>
+  <si>
+    <t>Check with medical officers and records of monthly meeting ''Swachh Baharat Abhiyan'' has been followed up during monthly meetings with extension workers like MPW, ASHA, ANM etc.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Hygiene Promotion</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Community Monitoring &amp; Patient Participation</t>
+  </si>
+  <si>
+    <t>F1.1</t>
+  </si>
+  <si>
+    <t>Local community and organisations are involved in monitoring and promoting cleanliness</t>
+  </si>
+  <si>
+    <t>Members of RKS and Local Governance bodies monitor the cleanliness of the PHC at pre-defined intervals
+Local NGO/ Civil Society Organizations/Panchayati Raj Institution are involved in cleanliness of the PHC</t>
+  </si>
+  <si>
+    <t>F1.2</t>
+  </si>
+  <si>
+    <t>Patients are made aware of their responsibility of keeping the health facility clean</t>
+  </si>
+  <si>
+    <t>PI/OB</t>
+  </si>
+  <si>
+    <t>Ask patients about their roles&amp; responsibilities with regards to cleanliness. Patient’s responsibilities should be prominently displayed</t>
+  </si>
+  <si>
+    <t>F1.3</t>
+  </si>
+  <si>
+    <t>The Health facility has a system to take feed-back from patients and visitors for maintaining the cleanliness of the facility</t>
+  </si>
+  <si>
+    <t>Check if there is a feedback system for the patients. Verify the records</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Information Education and Communication</t>
+  </si>
+  <si>
+    <t>F2.1</t>
+  </si>
+  <si>
+    <t>IEC regarding importance of maintaining hand hygiene is displayed in PHC premises</t>
+  </si>
+  <si>
+    <t>Should be displayed prominently in local language</t>
+  </si>
+  <si>
+    <t>F2.2</t>
+  </si>
+  <si>
+    <t>IEC regarding Swachhta Abhiyan is displayed within the facilities’ premises</t>
+  </si>
+  <si>
+    <t>F2.3</t>
+  </si>
+  <si>
+    <t>IEC regarding use of toilets is displayed within PHC premises</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Leadership and Team work</t>
+  </si>
+  <si>
+    <t>F3.1</t>
+  </si>
+  <si>
+    <t>Cleanliness and infection control committee has representation of all cadre of staff including Group ‘D’ and cleanings staff</t>
+  </si>
+  <si>
+    <t>Verify with the records</t>
+  </si>
+  <si>
+    <t>F3.2</t>
+  </si>
+  <si>
+    <t>Roles and responsibility of different staff members have been assigned and communicated</t>
+  </si>
+  <si>
+    <t>Ask different members about their roles and responsibilities</t>
+  </si>
+  <si>
+    <t>F3.3</t>
+  </si>
+  <si>
+    <t>PHC leadership review the progress of the cleanliness drive on weekly basis</t>
+  </si>
+  <si>
+    <t>Check about regularity of meetings and monitoring activities regarding cleanliness drive</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Training and Capacity Building and Standardization</t>
+  </si>
+  <si>
+    <t>F4.1</t>
+  </si>
+  <si>
+    <t>Bio medical waste Management training has been provided to the staff</t>
+  </si>
+  <si>
+    <t>Verify with the training records</t>
+  </si>
+  <si>
+    <t>F4.2</t>
+  </si>
+  <si>
+    <t>Infection control Training has been provided to the staff</t>
+  </si>
+  <si>
+    <t>Check staff are trained at the time of induction and once in every year</t>
+  </si>
+  <si>
+    <t>F4.3</t>
+  </si>
+  <si>
+    <t>PHC has documented Standard Operating procedures for Cleanliness, Bio-Medical waste management and Infection Control</t>
+  </si>
+  <si>
+    <t>Check availability of SOP with respective users</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>Staff Hygiene and Dress Code</t>
+  </si>
+  <si>
+    <t>F5.1</t>
+  </si>
+  <si>
+    <t>PHC has dress code policy for all cadre of staff</t>
+  </si>
+  <si>
+    <t>PHCs staff adhere to dress code</t>
+  </si>
+  <si>
+    <t>F5.2</t>
+  </si>
+  <si>
+    <t>There is a regular monitoring of hygiene of staff</t>
+  </si>
+  <si>
+    <t>Check about personal hygiene and clean dress of staff</t>
+  </si>
+  <si>
+    <t>F5.3</t>
+  </si>
+  <si>
+    <t>Identity cards and name plates have been provided to all staff</t>
+  </si>
+  <si>
+    <t>Check staff uses I Card and name plate</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Beyond Hospital Boundary</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Promotion of Swachhata &amp; Coordination with Local bodies</t>
+  </si>
+  <si>
+    <t>G1.1</t>
+  </si>
+  <si>
+    <t>Local community actively participates during Swachhata Pakhwara(Fortnight)</t>
+  </si>
+  <si>
+    <t>Local community is actively involved in administration of ''Swachhata Pledge'' and distribution of caps/T-shirts, badge with cleanliness message and logos of ''Swachh Bharat Abhiyan'' and ''Kayakalp''.</t>
+  </si>
+  <si>
+    <t>G1.2</t>
+  </si>
+  <si>
+    <t>Implementation of IEC activities related to ' Swachh Bharat Abhiyan'</t>
+  </si>
+  <si>
+    <t>OB/RR/SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertisement in news-papers/electronic media, distribution of booklets/ pamphlets, posters/wall writing-promoting use of toilets, hand washing, safe drinking water and tree plantation, etc. </t>
+  </si>
+  <si>
+    <t>G1.3</t>
+  </si>
+  <si>
+    <t>Community awareness by organising cultural programme and competitions</t>
+  </si>
+  <si>
+    <t>Like  rally/marathon/ Swachhata walk/human chain, street plays, essay/ poem/slogan/painting competition, etc.</t>
+  </si>
+  <si>
+    <t>G1.4</t>
+  </si>
+  <si>
+    <t>The Facility coordinates with local Gram Panchayat/Urban local bodies and NGOs for improving Swachhata in vicinity of the health facility</t>
+  </si>
+  <si>
+    <t>Look for evidence of collective action such as cleaning of drains, maintenance of parking space, orderly arrangement of hawkers (outside the facility), rickshaw, auto, taxi, construction &amp; maintenance of public toilets, improving street-lighting, removing cattle nuisance, etc.</t>
+  </si>
+  <si>
+    <t>G1.5</t>
+  </si>
+  <si>
+    <t>Facility coordinates with other departments for improving Swachhata</t>
+  </si>
+  <si>
+    <t>Look for evidence of coordination with departments such as Education (school programs on hygiene promotions), Water and Sanitation (making area ODF), PWD (Repair &amp; Maintenance), Forest Department (Plantation Drive) etc., which contributes strengthening towards of hygiene &amp; sanitation</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Leadership &amp; tapping alternative source of funding for Swachhata</t>
+  </si>
+  <si>
+    <t>G2.1</t>
+  </si>
+  <si>
+    <t>Surrounding area is declared Open Defecation Free</t>
+  </si>
+  <si>
+    <t>Check block/Ward is declared ODF</t>
+  </si>
+  <si>
+    <t>G2.2</t>
+  </si>
+  <si>
+    <t>The Facility has undertaken initiative for community mobilization in the surrounding for improving Swachhata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for any mobilization activities in line with VISHWAS campaign initiated by MoHFW, involving VHSNC/MAS </t>
+  </si>
+  <si>
+    <t>G2.3</t>
+  </si>
+  <si>
+    <t>The Facility endeavours to attract financial support from other organisations</t>
+  </si>
+  <si>
+    <t>Look for evidence that the health facility has been supported by other organisations such as Industry, Business houses, NGOs, Rotary &amp; Lions clubs, market associations, welfare associations etc. for improving the cleanliness in the surroundings</t>
+  </si>
+  <si>
+    <t>G2.4</t>
+  </si>
+  <si>
+    <t>Facility endeavours to attract financial support from local support</t>
+  </si>
+  <si>
+    <t>Look for evidence that local MPs/MLAs/Municipal Councillors/Panchayat Members/Zila Parisad/ individual donations have supported health facility in its cleanliness efforts.</t>
+  </si>
+  <si>
+    <t>G2.5</t>
+  </si>
+  <si>
+    <t>The facility engages the local Community for reducing household pollutions in the vicinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for evidence that the facility has engaged in reducing household level pollution in near vicinity of the health facility – Presence of community bins for segregated collection of general (biodegradable &amp; recyclable), Compost-pits, Roll-out of PM Ujjwala Scheme in nearby slum, etc. </t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanliness of approach road and surrounding area </t>
+  </si>
+  <si>
+    <t>G3.1</t>
+  </si>
+  <si>
+    <t>Area around the facility is clean, neat and tidy</t>
+  </si>
+  <si>
+    <t>Check for any litter/garbage/ in the surrounding area of the facility.</t>
+  </si>
+  <si>
+    <t>G3.2</t>
+  </si>
+  <si>
+    <t>On the way signages are available</t>
+  </si>
+  <si>
+    <t>Check for directional signage with name of the facility on the approach road.</t>
+  </si>
+  <si>
+    <t>G3.3</t>
+  </si>
+  <si>
+    <t>Approach road are even and free from pot-holes</t>
+  </si>
+  <si>
+    <t>Check that approach roads are clean and free from  pot-holes and water stagnation</t>
+  </si>
+  <si>
+    <t>G3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All drains/sewer are covered. </t>
+  </si>
+  <si>
+    <t>Check for open manhole and overflowing drains.</t>
+  </si>
+  <si>
+    <t>G3.5</t>
+  </si>
+  <si>
+    <t>Functional street lights are available on the approach road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for street lights and their functionality. </t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>Public Amenities in Surrounding Area</t>
+  </si>
+  <si>
+    <t>G4.1</t>
+  </si>
+  <si>
+    <t>Availability of Public toilets/ Urinal in surrounding Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check for availability separate toilets/ Urinal for male and female </t>
+  </si>
+  <si>
+    <t>G4.2</t>
+  </si>
+  <si>
+    <t>Such toilets/Urinal are neat &amp; clean</t>
+  </si>
+  <si>
+    <t>Check availability of water and level of cleanliness</t>
+  </si>
+  <si>
+    <t>G4.3</t>
+  </si>
+  <si>
+    <t>Presence of Safe Drinking Water facility outside the boundary wall</t>
+  </si>
+  <si>
+    <t>Check for its presence and functionality</t>
+  </si>
+  <si>
+    <t>G4.4</t>
+  </si>
+  <si>
+    <t>Availability of adequate parking facilities for Public Transport such as Cycle Rickshaw, Tanga, Auto, Taxi</t>
+  </si>
+  <si>
+    <t>Check signage &amp; parking space: Also check that such transports are parked haphazardly</t>
+  </si>
+  <si>
+    <t>G4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendors &amp; hawkers have designated place outside the facility </t>
+  </si>
+  <si>
+    <t>Check for the availability of designated place for vendors &amp; hawkers and cleanliness</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>Aesthetics of Surrounding area</t>
+  </si>
+  <si>
+    <t>G5.1</t>
+  </si>
+  <si>
+    <t>Parks and green areas in the surrounding area are well maintained</t>
+  </si>
+  <si>
+    <t>Check that there no wild vegetation &amp; growth in the surroundings. Shrubs and trees are well maintained.  Dry leaves and green waste are removed regularly.</t>
+  </si>
+  <si>
+    <t>G5.2</t>
+  </si>
+  <si>
+    <t>There are no stray animals in surrounding area</t>
+  </si>
+  <si>
+    <t>Observe for the presence of stray animals such as pigs, dogs cattle, etc.</t>
+  </si>
+  <si>
+    <t>G5.3</t>
+  </si>
+  <si>
+    <t>Illumination in surrounding area</t>
+  </si>
+  <si>
+    <t>Check that hospital front, approach road and surrounding area are well illuminated with street lights</t>
+  </si>
+  <si>
+    <t>G5.4</t>
+  </si>
+  <si>
+    <t>No unwanted/broken/torn/ loose hanging posters/billboards.</t>
+  </si>
+  <si>
+    <t>Check that hospital surrounding are not studded with irrelevant and out dated posters, slogans, wall writings, graffiti, etc.</t>
+  </si>
+  <si>
+    <t>G5.5</t>
+  </si>
+  <si>
+    <t>No loose hanging wires in and around bill boards, electrical polls etc.</t>
+  </si>
+  <si>
+    <t>Check for any loose hanging wires</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Maintenance of surrounding area and Waste Management</t>
+  </si>
+  <si>
+    <t>G6.1</t>
+  </si>
+  <si>
+    <t>Availability of bins for General recyclable and biodegradable wastes</t>
+  </si>
+  <si>
+    <t>Check availability adequate number of bins for Biodegradable and recyclable general waste in the nearby market</t>
+  </si>
+  <si>
+    <t>G6.2</t>
+  </si>
+  <si>
+    <t>Availability of garbage storage area/ compost pit</t>
+  </si>
+  <si>
+    <t>Garbage storage area is away from residential/commercial areas and is covered/ fenced. It is not causing public nuisance. In rural set-up there should be a compost pit.</t>
+  </si>
+  <si>
+    <t>G6.3</t>
+  </si>
+  <si>
+    <t>Innovations in managing waste</t>
+  </si>
+  <si>
+    <t>Check, if certain innovative practices have been introduced for managing waste e.g. Vermicomposting/Re-cycling of papers/Waste to energy/Compost Activators, etc.</t>
+  </si>
+  <si>
+    <t>G6.4</t>
+  </si>
+  <si>
+    <t>Surrounding areas are well maintained</t>
+  </si>
+  <si>
+    <t>Check that there is no over grown shrubs, weeds, grass, potholes, bumps etc. in surrounding areas</t>
+  </si>
+  <si>
+    <t>G6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular repairs and maintained of roads, footpaths and pavements </t>
+  </si>
+  <si>
+    <t>Check when was the last repair done and current condition of the road- pot-holes, broken footpath etc.</t>
+  </si>
+  <si>
+    <t>Check all the shelves/racks containing medicines  are labelled in  pharmacy and drug store
 Heavy items are stored at lower shelves/racks
 Fragile items are not stored at the edges of the shelves
 Drugs and consumables are stored away from water and sources of  heat, direct sunlight etc.
-Drugs are not stored at floor and adjacent to wall
-</t>
-  </si>
-  <si>
-    <t>E3.2</t>
-  </si>
-  <si>
-    <t>Cold storage equipment's are clean and managed properly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check ILR, Deep freezers and Ice packs are clean
+Drugs are not stored at floor and adjacent to wall</t>
+  </si>
+  <si>
+    <t>Check ILR, Deep freezers and Ice packs are clean
 Check there is a practice of regular cleaning.
 Check vaccines are kept in sequence
-Check work instruction for storage of vaccines are displayed at point of use 
-</t>
-  </si>
-  <si>
-    <t>E3.3</t>
-  </si>
-  <si>
-    <t>Cold storage equipment are not used for storing other items, than vaccine .</t>
-  </si>
-  <si>
-    <t>Check eatables are not kept in ILR/Deep Freezers</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>Security Services</t>
-  </si>
-  <si>
-    <t>E4.1</t>
-  </si>
-  <si>
-    <t>One Security Guard per shift</t>
-  </si>
-  <si>
-    <t>Check for the presence of one security personnel at PHC every shift</t>
-  </si>
-  <si>
-    <t>E4.2</t>
-  </si>
-  <si>
-    <t>Departments are locked after working hours</t>
-  </si>
-  <si>
-    <t>Departments like OPD, Lab, Administrative office etc. are locked after working hours.</t>
-  </si>
-  <si>
-    <t>E4.3</t>
-  </si>
-  <si>
-    <t>Security personal reprimands attendants, who found indulging into unhygienic behaviour - spitting, open field urination &amp; defecation, etc.</t>
-  </si>
-  <si>
-    <t>Check, if security personnel watch behaviour of patients and their attendants, particularly in respect of hygiene, sanitation, etc. and take appropriate actions, as deemed.</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>Outreach Services</t>
-  </si>
-  <si>
-    <t>E5.1</t>
-  </si>
-  <si>
-    <t>Biomedical waste generated during outreach session are transported to the PHC on the same day</t>
-  </si>
-  <si>
-    <t>Check the records and ask staff</t>
-  </si>
-  <si>
-    <t>E5.2</t>
-  </si>
-  <si>
-    <t>ASHA's are promoting cleanliness and hygiene practices</t>
-  </si>
-  <si>
-    <t>Check for ASHA's counsel mothers for hand hygiene, toilets, water sanitation etc.</t>
-  </si>
-  <si>
-    <t>E5.3</t>
-  </si>
-  <si>
-    <t>Medical officers monitor cleanliness and hygiene of outreach sessions and sub centres.</t>
-  </si>
-  <si>
-    <t>RR/ SI</t>
-  </si>
-  <si>
-    <t>Check with medical officers and records of monthly meeting ''Swachh Baharat Abhiyan'' has been followed up during monthly meetings with extension workers like MPW, ASHA, ANM etc.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Hygiene Promotion</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Community Monitoring &amp; Patient Participation</t>
-  </si>
-  <si>
-    <t>F1.1</t>
-  </si>
-  <si>
-    <t>Local community and organisations are involved in monitoring and promoting cleanliness</t>
-  </si>
-  <si>
-    <t>Members of RKS and Local Governance bodies monitor the cleanliness of the PHC at pre-defined intervals
-Local NGO/ Civil Society Organizations/Panchayati Raj Institution are involved in cleanliness of the PHC</t>
-  </si>
-  <si>
-    <t>F1.2</t>
-  </si>
-  <si>
-    <t>Patients are made aware of their responsibility of keeping the health facility clean</t>
-  </si>
-  <si>
-    <t>PI/OB</t>
-  </si>
-  <si>
-    <t>Ask patients about their roles&amp; responsibilities with regards to cleanliness. Patient’s responsibilities should be prominently displayed</t>
-  </si>
-  <si>
-    <t>F1.3</t>
-  </si>
-  <si>
-    <t>The Health facility has a system to take feed-back from patients and visitors for maintaining the cleanliness of the facility</t>
-  </si>
-  <si>
-    <t>Check if there is a feedback system for the patients. Verify the records</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Information Education and Communication</t>
-  </si>
-  <si>
-    <t>F2.1</t>
-  </si>
-  <si>
-    <t>IEC regarding importance of maintaining hand hygiene is displayed in PHC premises</t>
-  </si>
-  <si>
-    <t>Should be displayed prominently in local language</t>
-  </si>
-  <si>
-    <t>F2.2</t>
-  </si>
-  <si>
-    <t>IEC regarding Swachhta Abhiyan is displayed within the facilities’ premises</t>
-  </si>
-  <si>
-    <t>F2.3</t>
-  </si>
-  <si>
-    <t>IEC regarding use of toilets is displayed within PHC premises</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>Leadership and Team work</t>
-  </si>
-  <si>
-    <t>F3.1</t>
-  </si>
-  <si>
-    <t>Cleanliness and infection control committee has representation of all cadre of staff including Group ‘D’ and cleanings staff</t>
-  </si>
-  <si>
-    <t>Verify with the records</t>
-  </si>
-  <si>
-    <t>F3.2</t>
-  </si>
-  <si>
-    <t>Roles and responsibility of different staff members have been assigned and communicated</t>
-  </si>
-  <si>
-    <t>Ask different members about their roles and responsibilities</t>
-  </si>
-  <si>
-    <t>F3.3</t>
-  </si>
-  <si>
-    <t>PHC leadership review the progress of the cleanliness drive on weekly basis</t>
-  </si>
-  <si>
-    <t>Check about regularity of meetings and monitoring activities regarding cleanliness drive</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Training and Capacity Building and Standardization</t>
-  </si>
-  <si>
-    <t>F4.1</t>
-  </si>
-  <si>
-    <t>Bio medical waste Management training has been provided to the staff</t>
-  </si>
-  <si>
-    <t>Verify with the training records</t>
-  </si>
-  <si>
-    <t>F4.2</t>
-  </si>
-  <si>
-    <t>Infection control Training has been provided to the staff</t>
-  </si>
-  <si>
-    <t>Check staff are trained at the time of induction and once in every year</t>
-  </si>
-  <si>
-    <t>F4.3</t>
-  </si>
-  <si>
-    <t>PHC has documented Standard Operating procedures for Cleanliness, Bio-Medical waste management and Infection Control</t>
-  </si>
-  <si>
-    <t>Check availability of SOP with respective users</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>Staff Hygiene and Dress Code</t>
-  </si>
-  <si>
-    <t>F5.1</t>
-  </si>
-  <si>
-    <t>PHC has dress code policy for all cadre of staff</t>
-  </si>
-  <si>
-    <t>PHCs staff adhere to dress code</t>
-  </si>
-  <si>
-    <t>F5.2</t>
-  </si>
-  <si>
-    <t>There is a regular monitoring of hygiene of staff</t>
-  </si>
-  <si>
-    <t>Check about personal hygiene and clean dress of staff</t>
-  </si>
-  <si>
-    <t>F5.3</t>
-  </si>
-  <si>
-    <t>Identity cards and name plates have been provided to all staff</t>
-  </si>
-  <si>
-    <t>Check staff uses I Card and name plate</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Beyond Hospital Boundary</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>Promotion of Swachhata &amp; Coordination with Local bodies</t>
-  </si>
-  <si>
-    <t>G1.1</t>
-  </si>
-  <si>
-    <t>Local community actively participates during Swachhata Pakhwara(Fortnight)</t>
-  </si>
-  <si>
-    <t>Local community is actively involved in administration of ''Swachhata Pledge'' and distribution of caps/T-shirts, badge with cleanliness message and logos of ''Swachh Bharat Abhiyan'' and ''Kayakalp''.</t>
-  </si>
-  <si>
-    <t>G1.2</t>
-  </si>
-  <si>
-    <t>Implementation of IEC activities related to ' Swachh Bharat Abhiyan'</t>
-  </si>
-  <si>
-    <t>OB/RR/SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advertisement in news-papers/electronic media, distribution of booklets/ pamphlets, posters/wall writing-promoting use of toilets, hand washing, safe drinking water and tree plantation, etc. </t>
-  </si>
-  <si>
-    <t>G1.3</t>
-  </si>
-  <si>
-    <t>Community awareness by organising cultural programme and competitions</t>
-  </si>
-  <si>
-    <t>Like  rally/marathon/ Swachhata walk/human chain, street plays, essay/ poem/slogan/painting competition, etc.</t>
-  </si>
-  <si>
-    <t>G1.4</t>
-  </si>
-  <si>
-    <t>The Facility coordinates with local Gram Panchayat/Urban local bodies and NGOs for improving Swachhata in vicinity of the health facility</t>
-  </si>
-  <si>
-    <t>Look for evidence of collective action such as cleaning of drains, maintenance of parking space, orderly arrangement of hawkers (outside the facility), rickshaw, auto, taxi, construction &amp; maintenance of public toilets, improving street-lighting, removing cattle nuisance, etc.</t>
-  </si>
-  <si>
-    <t>G1.5</t>
-  </si>
-  <si>
-    <t>Facility coordinates with other departments for improving Swachhata</t>
-  </si>
-  <si>
-    <t>Look for evidence of coordination with departments such as Education (school programs on hygiene promotions), Water and Sanitation (making area ODF), PWD (Repair &amp; Maintenance), Forest Department (Plantation Drive) etc., which contributes strengthening towards of hygiene &amp; sanitation</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Leadership &amp; tapping alternative source of funding for Swachhata</t>
-  </si>
-  <si>
-    <t>G2.1</t>
-  </si>
-  <si>
-    <t>Surrounding area is declared Open Defecation Free</t>
-  </si>
-  <si>
-    <t>Check block/Ward is declared ODF</t>
-  </si>
-  <si>
-    <t>G2.2</t>
-  </si>
-  <si>
-    <t>The Facility has undertaken initiative for community mobilization in the surrounding for improving Swachhata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for any mobilization activities in line with VISHWAS campaign initiated by MoHFW, involving VHSNC/MAS </t>
-  </si>
-  <si>
-    <t>G2.3</t>
-  </si>
-  <si>
-    <t>The Facility endeavours to attract financial support from other organisations</t>
-  </si>
-  <si>
-    <t>Look for evidence that the health facility has been supported by other organisations such as Industry, Business houses, NGOs, Rotary &amp; Lions clubs, market associations, welfare associations etc. for improving the cleanliness in the surroundings</t>
-  </si>
-  <si>
-    <t>G2.4</t>
-  </si>
-  <si>
-    <t>Facility endeavours to attract financial support from local support</t>
-  </si>
-  <si>
-    <t>Look for evidence that local MPs/MLAs/Municipal Councillors/Panchayat Members/Zila Parisad/ individual donations have supported health facility in its cleanliness efforts.</t>
-  </si>
-  <si>
-    <t>G2.5</t>
-  </si>
-  <si>
-    <t>The facility engages the local Community for reducing household pollutions in the vicinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Look for evidence that the facility has engaged in reducing household level pollution in near vicinity of the health facility – Presence of community bins for segregated collection of general (biodegradable &amp; recyclable), Compost-pits, Roll-out of PM Ujjwala Scheme in nearby slum, etc. </t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleanliness of approach road and surrounding area </t>
-  </si>
-  <si>
-    <t>G3.1</t>
-  </si>
-  <si>
-    <t>Area around the facility is clean, neat and tidy</t>
-  </si>
-  <si>
-    <t>Check for any litter/garbage/ in the surrounding area of the facility.</t>
-  </si>
-  <si>
-    <t>G3.2</t>
-  </si>
-  <si>
-    <t>On the way signages are available</t>
-  </si>
-  <si>
-    <t>Check for directional signage with name of the facility on the approach road.</t>
-  </si>
-  <si>
-    <t>G3.3</t>
-  </si>
-  <si>
-    <t>Approach road are even and free from pot-holes</t>
-  </si>
-  <si>
-    <t>Check that approach roads are clean and free from  pot-holes and water stagnation</t>
-  </si>
-  <si>
-    <t>G3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All drains/sewer are covered. </t>
-  </si>
-  <si>
-    <t>Check for open manhole and overflowing drains.</t>
-  </si>
-  <si>
-    <t>G3.5</t>
-  </si>
-  <si>
-    <t>Functional street lights are available on the approach road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for street lights and their functionality. </t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>Public Amenities in Surrounding Area</t>
-  </si>
-  <si>
-    <t>G4.1</t>
-  </si>
-  <si>
-    <t>Availability of Public toilets/ Urinal in surrounding Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for availability separate toilets/ Urinal for male and female </t>
-  </si>
-  <si>
-    <t>G4.2</t>
-  </si>
-  <si>
-    <t>Such toilets/Urinal are neat &amp; clean</t>
-  </si>
-  <si>
-    <t>Check availability of water and level of cleanliness</t>
-  </si>
-  <si>
-    <t>G4.3</t>
-  </si>
-  <si>
-    <t>Presence of Safe Drinking Water facility outside the boundary wall</t>
-  </si>
-  <si>
-    <t>Check for its presence and functionality</t>
-  </si>
-  <si>
-    <t>G4.4</t>
-  </si>
-  <si>
-    <t>Availability of adequate parking facilities for Public Transport such as Cycle Rickshaw, Tanga, Auto, Taxi</t>
-  </si>
-  <si>
-    <t>Check signage &amp; parking space: Also check that such transports are parked haphazardly</t>
-  </si>
-  <si>
-    <t>G4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vendors &amp; hawkers have designated place outside the facility </t>
-  </si>
-  <si>
-    <t>Check for the availability of designated place for vendors &amp; hawkers and cleanliness</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>Aesthetics of Surrounding area</t>
-  </si>
-  <si>
-    <t>G5.1</t>
-  </si>
-  <si>
-    <t>Parks and green areas in the surrounding area are well maintained</t>
-  </si>
-  <si>
-    <t>Check that there no wild vegetation &amp; growth in the surroundings. Shrubs and trees are well maintained.  Dry leaves and green waste are removed regularly.</t>
-  </si>
-  <si>
-    <t>G5.2</t>
-  </si>
-  <si>
-    <t>There are no stray animals in surrounding area</t>
-  </si>
-  <si>
-    <t>Observe for the presence of stray animals such as pigs, dogs cattle, etc.</t>
-  </si>
-  <si>
-    <t>G5.3</t>
-  </si>
-  <si>
-    <t>Illumination in surrounding area</t>
-  </si>
-  <si>
-    <t>Check that hospital front, approach road and surrounding area are well illuminated with street lights</t>
-  </si>
-  <si>
-    <t>G5.4</t>
-  </si>
-  <si>
-    <t>No unwanted/broken/torn/ loose hanging posters/billboards.</t>
-  </si>
-  <si>
-    <t>Check that hospital surrounding are not studded with irrelevant and out dated posters, slogans, wall writings, graffiti, etc.</t>
-  </si>
-  <si>
-    <t>G5.5</t>
-  </si>
-  <si>
-    <t>No loose hanging wires in and around bill boards, electrical polls etc.</t>
-  </si>
-  <si>
-    <t>Check for any loose hanging wires</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>Maintenance of surrounding area and Waste Management</t>
-  </si>
-  <si>
-    <t>G6.1</t>
-  </si>
-  <si>
-    <t>Availability of bins for General recyclable and biodegradable wastes</t>
-  </si>
-  <si>
-    <t>Check availability adequate number of bins for Biodegradable and recyclable general waste in the nearby market</t>
-  </si>
-  <si>
-    <t>G6.2</t>
-  </si>
-  <si>
-    <t>Availability of garbage storage area/ compost pit</t>
-  </si>
-  <si>
-    <t>Garbage storage area is away from residential/commercial areas and is covered/ fenced. It is not causing public nuisance. In rural set-up there should be a compost pit.</t>
-  </si>
-  <si>
-    <t>G6.3</t>
-  </si>
-  <si>
-    <t>Innovations in managing waste</t>
-  </si>
-  <si>
-    <t>Check, if certain innovative practices have been introduced for managing waste e.g. Vermicomposting/Re-cycling of papers/Waste to energy/Compost Activators, etc.</t>
-  </si>
-  <si>
-    <t>G6.4</t>
-  </si>
-  <si>
-    <t>Surrounding areas are well maintained</t>
-  </si>
-  <si>
-    <t>Check that there is no over grown shrubs, weeds, grass, potholes, bumps etc. in surrounding areas</t>
-  </si>
-  <si>
-    <t>G6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular repairs and maintained of roads, footpaths and pavements </t>
-  </si>
-  <si>
-    <t>Check when was the last repair done and current condition of the road- pot-holes, broken footpath etc.</t>
+Check work instruction for storage of vaccines are displayed at point of use</t>
   </si>
 </sst>
 </file>
@@ -2688,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707588A9-5FFB-44A9-AA4B-E2E330D38066}">
   <dimension ref="A1:AZ245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2829,9 +2835,6 @@
         <v>0</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="AZ8" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:52" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -5458,7 +5461,7 @@
       </c>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>493</v>
       </c>
@@ -5468,50 +5471,50 @@
       <c r="C177" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>495</v>
+      <c r="D177" s="10" t="s">
+        <v>684</v>
       </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
     </row>
-    <row r="178" spans="1:6" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B178" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>498</v>
+        <v>685</v>
       </c>
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
     </row>
     <row r="179" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
     </row>
     <row r="180" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="8"/>
@@ -5523,58 +5526,58 @@
     </row>
     <row r="181" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
     </row>
     <row r="183" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
     </row>
     <row r="184" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="8"/>
@@ -5586,58 +5589,58 @@
     </row>
     <row r="185" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>435</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
     <row r="186" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>524</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="6"/>
@@ -5646,10 +5649,10 @@
     </row>
     <row r="189" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="8"/>
@@ -5661,58 +5664,58 @@
     </row>
     <row r="190" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
     </row>
     <row r="191" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="D191" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
     </row>
     <row r="192" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="8"/>
@@ -5724,58 +5727,58 @@
     </row>
     <row r="194" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
     </row>
     <row r="195" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
     </row>
     <row r="196" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
     </row>
     <row r="197" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="8"/>
@@ -5787,58 +5790,58 @@
     </row>
     <row r="198" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>435</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
     </row>
     <row r="199" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
     </row>
     <row r="200" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
     </row>
     <row r="201" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="8"/>
@@ -5850,58 +5853,58 @@
     </row>
     <row r="202" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
     </row>
     <row r="203" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
     </row>
     <row r="204" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>344</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
     <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="8"/>
@@ -5913,58 +5916,58 @@
     </row>
     <row r="206" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
     <row r="207" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
     </row>
     <row r="208" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
     </row>
     <row r="209" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="6"/>
@@ -5973,10 +5976,10 @@
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C210" s="20"/>
       <c r="D210" s="21"/>
@@ -5988,90 +5991,90 @@
     </row>
     <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C211" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="24"/>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="C212" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="D212" s="23" t="s">
         <v>589</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>591</v>
       </c>
       <c r="E212" s="12"/>
       <c r="F212" s="24"/>
     </row>
     <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C213" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="24"/>
     </row>
     <row r="214" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C214" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="24"/>
     </row>
     <row r="215" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C215" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="24"/>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C216" s="25"/>
       <c r="D216" s="14"/>
@@ -6083,90 +6086,90 @@
     </row>
     <row r="217" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C217" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="24"/>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C218" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E218" s="12"/>
       <c r="F218" s="24"/>
     </row>
     <row r="219" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C219" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E219" s="12"/>
       <c r="F219" s="24"/>
     </row>
     <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C220" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E220" s="12"/>
       <c r="F220" s="24"/>
     </row>
     <row r="221" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C221" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E221" s="12"/>
       <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C222" s="31"/>
       <c r="D222" s="14"/>
@@ -6178,90 +6181,90 @@
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C223" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="24"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C224" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E224" s="12"/>
       <c r="F224" s="24"/>
     </row>
     <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C225" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E225" s="12"/>
       <c r="F225" s="24"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C226" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E226" s="12"/>
       <c r="F226" s="24"/>
     </row>
     <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C227" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E227" s="12"/>
       <c r="F227" s="24"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C228" s="25"/>
       <c r="D228" s="14"/>
@@ -6273,90 +6276,90 @@
     </row>
     <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="24"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="23" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E230" s="12"/>
       <c r="F230" s="24"/>
     </row>
     <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="24"/>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="24"/>
     </row>
     <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C233" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E233" s="12"/>
       <c r="F233" s="24"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C234" s="25"/>
       <c r="D234" s="14"/>
@@ -6368,90 +6371,90 @@
     </row>
     <row r="235" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C235" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E235" s="12"/>
       <c r="F235" s="24"/>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C236" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="24"/>
     </row>
     <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C237" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E237" s="12"/>
       <c r="F237" s="24"/>
     </row>
     <row r="238" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C238" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="24"/>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="23" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C239" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E239" s="12"/>
       <c r="F239" s="24"/>
     </row>
     <row r="240" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="14"/>
@@ -6463,80 +6466,80 @@
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C241" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="24"/>
     </row>
     <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="24"/>
     </row>
     <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C243" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="24"/>
     </row>
     <row r="244" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="24"/>
     </row>
     <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C245" s="24" t="s">
         <v>324</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="24"/>
@@ -6546,14 +6549,17 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B222:C222"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E7 E9:E11 E13:E15 E17:E19 E21:E23 E25:E27 E29:E31 E33:E35 E37:E39 E41:E43 E46:E48 E50:E52 E54:E56 E58:E60 E62:E64 E66:E68 E70:E72 E74:E76 E78:E80 E82:E84 E87:E89 E91:E93 E95:E97 E99:E101 E103:E105 E107:E109 E111:E113 E115:E117 E119:E121 E123:E125 E128:E130 E132:E134 E136:E138 E140:E142 E144:E146 E148:E150 E152:E154 E156:E158 E160:E162 E164:E166 E169:E171 E173:E175 E177:E179 E185:E187 E190:E192 E194:E196 E198:E200 E202:E204 E206:E208 E211:E215 E217:E221 E223:E227 E229:E233 E235:E239 E241:E245" xr:uid="{7402D258-75C4-4ACC-9409-6660B70F565C}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E144:E146 E152:E154 E148:E150 E156:E157" xr:uid="{7402D258-75C4-4ACC-9409-6660B70F565C}">
       <formula1>$AZ$5:$AZ$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F228:F245 F211:F215 F217:F222" xr:uid="{18D2D36C-77AF-48BD-9696-58CB0314E4AA}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{05AD8681-19A3-4634-AC22-172655082085}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E7 E9:E11 E13:E15 E17:E19 E21:E23 E25:E27 E29:E31 E33:E35 E37:E39 E41:E43 E46:E48 E50:E52 E54:E56 E58:E60 E62:E64 E66:E68 E70:E72 E74:E76 E78:E80 E82:E84 E87:E89 E91:E93 E95:E97 E99:E101 E103:E105 E107:E109 E111:E113 E115:E117 E119:E121 E123:E125 E128:E130 E132:E134 E136:E138 E140:E142 E158 E160:E162 E164:E166 E169:E171 E173:E175 E177:E179 E181:E183 E185:E187 E190:E192 E194:E196 E198:E200 E202:E204 E206:E208 E211:E215 E217:E221 E223:E227 E229:E233 E235:E239 E241:E245" xr:uid="{11DEB52D-8DE7-48E3-9ACB-56388A874B2B}">
+      <formula1>$AZ$5:$AZ$7</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/components/download_templates/templates/Kayakalp_PHC_Bedded_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kayakalp_PHC_Bedded_Excel_Import_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA8C39-2842-41BE-B7FA-55FEAA07A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B3D863-5C7F-455B-BF65-51433B0FB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A526CD4-7E4D-44CB-86F3-B00760FCF87D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="698">
   <si>
     <t>PHC Bedded Quarterly Dataset</t>
   </si>
@@ -338,10 +338,6 @@
     <t>No junk material within the PHC premises</t>
   </si>
   <si>
-    <t>Check if unused/ condemned articles, and outdated records are kept in the Nursing stations, OPD clinics, Labour Room , Injection Room , Dressing Room, Wards, stairs, open areas, roof tops, balcony etc.
-No condemned vehicles are parked</t>
-  </si>
-  <si>
     <t>A8.3</t>
   </si>
   <si>
@@ -635,11 +631,6 @@
   </si>
   <si>
     <t>SI/OB/RR</t>
-  </si>
-  <si>
-    <t>Check for good quality PHC cleaning solution preferably a ISI mark. Composition and concentration of solution is written on label. 
-Check with cleaning staff if they are getting adequate supply. Verify the consumption records.
-Check, if the cleaning staff is aware of correct concentration and dilution method for preparing cleaning solution.</t>
   </si>
   <si>
     <t>B7.2</t>
@@ -2155,24 +2146,63 @@
     <t>Check when was the last repair done and current condition of the road- pot-holes, broken footpath etc.</t>
   </si>
   <si>
-    <t>Check all the shelves/racks containing medicines  are labelled in  pharmacy and drug store
-Heavy items are stored at lower shelves/racks
-Fragile items are not stored at the edges of the shelves
-Drugs and consumables are stored away from water and sources of  heat, direct sunlight etc.
-Drugs are not stored at floor and adjacent to wall</t>
-  </si>
-  <si>
     <t>Check ILR, Deep freezers and Ice packs are clean
 Check there is a practice of regular cleaning.
 Check vaccines are kept in sequence
 Check work instruction for storage of vaccines are displayed at point of use</t>
+  </si>
+  <si>
+    <t>Thematic Area</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Score-card</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>B.Sanitation &amp; Hygiene</t>
+  </si>
+  <si>
+    <t>C.Waste Management</t>
+  </si>
+  <si>
+    <t>D.Infection Control</t>
+  </si>
+  <si>
+    <t>E.Support Services</t>
+  </si>
+  <si>
+    <t>F.Hygiene Promotion</t>
+  </si>
+  <si>
+    <t>G.Beyond Hospital Boundary</t>
+  </si>
+  <si>
+    <t>A.PHC Upkeep</t>
+  </si>
+  <si>
+    <t>Cleanliness Score Card</t>
+  </si>
+  <si>
+    <t>Check if unused/ condemned articles, and outdated records are kept in the Nursing stations, OPD clinics, Labour Room , Injection Room , Dressing Room, Wards, stairs, open areas, roof tops, balcony etc.No condemned vehicles are parked</t>
+  </si>
+  <si>
+    <t>Check for good quality PHC cleaning solution preferably a ISI mark. Composition and concentration of solution is written on label.Check with cleaning staff if they are getting adequate supply. Verify the consumption records.Check, if the cleaning staff is aware of correct concentration and dilution method for preparing cleaning solution.</t>
+  </si>
+  <si>
+    <t>Check all the shelves/racks containing medicines  are labelled in  pharmacy and drug store
+Heavy items are stored at lower shelves/racks.Fragile items are not stored at the edges of the shelves.Drugs and consumables are stored away from water and sources of  heat, direct sunlight etc. Drugs are not stored at floor and adjacent to wall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2224,6 +2254,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2285,7 +2322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2377,6 +2414,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2694,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707588A9-5FFB-44A9-AA4B-E2E330D38066}">
   <dimension ref="A1:AZ245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="G242" sqref="G242"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,11 +2763,15 @@
     <col min="4" max="4" width="78.33203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
@@ -2736,6 +2798,18 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -2748,6 +2822,20 @@
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
+      <c r="G3" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="H3" s="35">
+        <f>SUM(E4+E8+E12+E16+E20+E24+E28+E32+E36+E40)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="J3" s="36">
+        <f>(H3+H4+H5+H6+H7+H8+H9+H10)/360</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -2763,6 +2851,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="9"/>
+      <c r="G4" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="H4" s="35">
+        <f>SUM(E45+E49+E53+E57+E61+E65+E69+E73+E77+E81)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:52" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2777,8 +2874,19 @@
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
       <c r="F5" s="12"/>
+      <c r="G5" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="H5" s="35">
+        <f>SUM(E86+E90+E94+E98+E102+E106+E110+E114+E118+E122)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="AZ5" s="5">
         <v>0</v>
       </c>
@@ -2796,8 +2904,19 @@
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
       <c r="F6" s="12"/>
+      <c r="G6" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="H6" s="35">
+        <f>SUM(E127+E131+E135+E139+E143+E147+E151+E155+E159+E163)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="AZ6" s="5">
         <v>1</v>
       </c>
@@ -2815,8 +2934,19 @@
       <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
       <c r="F7" s="12"/>
+      <c r="G7" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="H7" s="35">
+        <f>SUM(E168+E172+E176+E180+E184)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
       <c r="AZ7" s="5">
         <v>2</v>
       </c>
@@ -2835,6 +2965,15 @@
         <v>0</v>
       </c>
       <c r="F8" s="9"/>
+      <c r="G8" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="H8" s="35">
+        <f>SUM(E189+E193+E197+E201+E205)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:52" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -2849,8 +2988,19 @@
       <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
       <c r="F9" s="12"/>
+      <c r="G9" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="H9" s="35">
+        <f>SUM(E210+E216+E222+E228+E234+E240)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:52" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -2865,8 +3015,14 @@
       <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
       <c r="F10" s="12"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -2881,7 +3037,9 @@
       <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2912,7 +3070,9 @@
       <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2928,7 +3088,9 @@
       <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2944,7 +3106,9 @@
       <c r="D15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2956,7 +3120,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f>SUM(E17:E19)</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2972,7 +3139,9 @@
       <c r="D17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2988,7 +3157,9 @@
       <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3004,7 +3175,9 @@
       <c r="D19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3035,7 +3208,9 @@
       <c r="D21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3051,7 +3226,9 @@
       <c r="D22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3067,7 +3244,9 @@
       <c r="D23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3098,7 +3277,9 @@
       <c r="D25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3114,7 +3295,9 @@
       <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3130,7 +3313,9 @@
       <c r="D27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3161,7 +3346,9 @@
       <c r="D29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3177,7 +3364,9 @@
       <c r="D30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3193,7 +3382,9 @@
       <c r="D31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3224,10 +3415,12 @@
       <c r="D33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>97</v>
       </c>
@@ -3238,33 +3431,37 @@
         <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="12"/>
+        <v>695</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="8"/>
@@ -3276,118 +3473,133 @@
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <f>SUM(E41:E43)</f>
+        <v>0</v>
+      </c>
       <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
       <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
       <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -3396,10 +3608,10 @@
     </row>
     <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
@@ -3411,58 +3623,64 @@
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
       <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8"/>
@@ -3474,58 +3692,64 @@
     </row>
     <row r="50" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="8"/>
@@ -3537,58 +3761,64 @@
     </row>
     <row r="54" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
       <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
       <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="8"/>
@@ -3600,58 +3830,64 @@
     </row>
     <row r="58" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="12"/>
+        <v>161</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
       <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
       <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="8"/>
@@ -3663,58 +3899,64 @@
     </row>
     <row r="62" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0</v>
+      </c>
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
       <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="8"/>
@@ -3726,58 +3968,64 @@
     </row>
     <row r="66" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E66" s="12"/>
+        <v>181</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0</v>
+      </c>
       <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E67" s="12"/>
+        <v>184</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
       <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="8"/>
@@ -3787,60 +4035,66 @@
       </c>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>193</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="12"/>
+        <v>696</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
       <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
       <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
       <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="8"/>
@@ -3852,58 +4106,64 @@
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E75" s="12"/>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
       <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="8"/>
@@ -3915,58 +4175,64 @@
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="D78" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E78" s="12"/>
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
       <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="12"/>
+        <v>218</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="8"/>
@@ -3978,58 +4244,64 @@
     </row>
     <row r="82" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
       <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" s="12"/>
+        <v>229</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E84" s="12"/>
+        <v>232</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="6"/>
@@ -4038,10 +4310,10 @@
     </row>
     <row r="86" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="8"/>
@@ -4053,58 +4325,64 @@
     </row>
     <row r="87" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="12"/>
+        <v>239</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
       <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0</v>
+      </c>
       <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="D89" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89" s="12"/>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
       <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="8"/>
@@ -4116,58 +4394,64 @@
     </row>
     <row r="91" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E91" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0</v>
+      </c>
       <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E92" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
       <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E93" s="12"/>
+        <v>257</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
       <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="8"/>
@@ -4179,58 +4463,64 @@
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
       <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E96" s="12"/>
+        <v>266</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
       <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E97" s="12"/>
+        <v>269</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
       <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="15"/>
@@ -4242,58 +4532,64 @@
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E99" s="12"/>
+        <v>274</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
       <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E100" s="12"/>
+        <v>277</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
       <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E101" s="12"/>
+        <v>280</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
       <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="8"/>
@@ -4305,58 +4601,64 @@
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="D103" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E103" s="12"/>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
       <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E104" s="12"/>
+        <v>289</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
       <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E105" s="12"/>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
       <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="8"/>
@@ -4368,58 +4670,64 @@
     </row>
     <row r="107" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E107" s="12"/>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
       <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" s="12"/>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
       <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" s="12"/>
+        <v>303</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
       <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="8"/>
@@ -4431,58 +4739,64 @@
     </row>
     <row r="111" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E111" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
       <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E112" s="12"/>
+        <v>311</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
       <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E113" s="12"/>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
       <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="8"/>
@@ -4494,58 +4808,64 @@
     </row>
     <row r="115" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E115" s="12"/>
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
       <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E116" s="12"/>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
       <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E117" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0</v>
+      </c>
       <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="8"/>
@@ -4557,58 +4877,64 @@
     </row>
     <row r="119" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E119" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
       <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="E120" s="12"/>
+        <v>334</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
       <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E121" s="12"/>
+        <v>337</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0</v>
+      </c>
       <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="8"/>
@@ -4620,58 +4946,64 @@
     </row>
     <row r="123" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="D123" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="E123" s="12"/>
+      <c r="E123" s="12">
+        <v>0</v>
+      </c>
       <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="E124" s="12"/>
+      <c r="E124" s="12">
+        <v>0</v>
+      </c>
       <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125" s="12"/>
+      <c r="E125" s="12">
+        <v>0</v>
+      </c>
       <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="6"/>
@@ -4680,10 +5012,10 @@
     </row>
     <row r="127" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="8"/>
@@ -4695,58 +5027,64 @@
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E128" s="12"/>
+        <v>356</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0</v>
+      </c>
       <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E129" s="12"/>
+        <v>359</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0</v>
+      </c>
       <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E130" s="12"/>
+      <c r="E130" s="12">
+        <v>0</v>
+      </c>
       <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="8"/>
@@ -4758,58 +5096,64 @@
     </row>
     <row r="132" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="E132" s="12"/>
+      <c r="E132" s="12">
+        <v>0</v>
+      </c>
       <c r="F132" s="12"/>
     </row>
     <row r="133" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="E133" s="12"/>
+      <c r="E133" s="12">
+        <v>0</v>
+      </c>
       <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E134" s="12"/>
+      <c r="E134" s="12">
+        <v>0</v>
+      </c>
       <c r="F134" s="12"/>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="8"/>
@@ -4821,58 +5165,64 @@
     </row>
     <row r="136" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E136" s="12"/>
+      <c r="E136" s="12">
+        <v>0</v>
+      </c>
       <c r="F136" s="12"/>
     </row>
     <row r="137" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D137" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E137" s="12"/>
+      <c r="E137" s="12">
+        <v>0</v>
+      </c>
       <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E138" s="12"/>
+      <c r="E138" s="12">
+        <v>0</v>
+      </c>
       <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="8"/>
@@ -4884,58 +5234,64 @@
     </row>
     <row r="140" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D140" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E140" s="12"/>
+      <c r="E140" s="12">
+        <v>0</v>
+      </c>
       <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E141" s="12"/>
+      <c r="E141" s="12">
+        <v>0</v>
+      </c>
       <c r="F141" s="12"/>
     </row>
     <row r="142" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D142" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E142" s="12"/>
+      <c r="E142" s="12">
+        <v>0</v>
+      </c>
       <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="8"/>
@@ -4947,58 +5303,64 @@
     </row>
     <row r="144" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E144" s="12"/>
+      <c r="E144" s="12">
+        <v>0</v>
+      </c>
       <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D145" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E145" s="12"/>
+      <c r="E145" s="12">
+        <v>0</v>
+      </c>
       <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E146" s="12"/>
+      <c r="E146" s="12">
+        <v>0</v>
+      </c>
       <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="8"/>
@@ -5010,58 +5372,64 @@
     </row>
     <row r="148" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E148" s="12"/>
+      <c r="E148" s="12">
+        <v>0</v>
+      </c>
       <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="E149" s="12"/>
+      <c r="E149" s="12">
+        <v>0</v>
+      </c>
       <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E150" s="12"/>
+      <c r="E150" s="12">
+        <v>0</v>
+      </c>
       <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="8"/>
@@ -5073,58 +5441,64 @@
     </row>
     <row r="152" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E152" s="12"/>
+        <v>422</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0</v>
+      </c>
       <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E153" s="12"/>
+        <v>425</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0</v>
+      </c>
       <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="E154" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0</v>
+      </c>
       <c r="F154" s="12"/>
     </row>
     <row r="155" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="8"/>
@@ -5136,58 +5510,64 @@
     </row>
     <row r="156" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="D156" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C156" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="E156" s="12"/>
+      <c r="E156" s="12">
+        <v>0</v>
+      </c>
       <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E157" s="12"/>
+      <c r="E157" s="12">
+        <v>0</v>
+      </c>
       <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E158" s="12"/>
+      <c r="E158" s="12">
+        <v>0</v>
+      </c>
       <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="8"/>
@@ -5199,58 +5579,64 @@
     </row>
     <row r="160" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D160" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E160" s="12"/>
+      <c r="E160" s="12">
+        <v>0</v>
+      </c>
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E161" s="12"/>
+      <c r="E161" s="12">
+        <v>0</v>
+      </c>
       <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D162" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E162" s="12"/>
+      <c r="E162" s="12">
+        <v>0</v>
+      </c>
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="8"/>
@@ -5262,58 +5648,64 @@
     </row>
     <row r="164" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E164" s="12"/>
+        <v>456</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0</v>
+      </c>
       <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E165" s="12"/>
+        <v>459</v>
+      </c>
+      <c r="E165" s="12">
+        <v>0</v>
+      </c>
       <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E166" s="12"/>
+        <v>462</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
       <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="6"/>
@@ -5322,10 +5714,10 @@
     </row>
     <row r="168" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="8"/>
@@ -5337,58 +5729,64 @@
     </row>
     <row r="169" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D169" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="E169" s="12"/>
+      <c r="E169" s="12">
+        <v>0</v>
+      </c>
       <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E170" s="12"/>
+        <v>472</v>
+      </c>
+      <c r="E170" s="12">
+        <v>0</v>
+      </c>
       <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="D171" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C171" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="E171" s="12"/>
+      <c r="E171" s="12">
+        <v>0</v>
+      </c>
       <c r="F171" s="12"/>
     </row>
     <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="8"/>
@@ -5400,58 +5798,64 @@
     </row>
     <row r="173" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="D173" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="E173" s="12"/>
+      <c r="E173" s="12">
+        <v>0</v>
+      </c>
       <c r="F173" s="12"/>
     </row>
     <row r="174" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E174" s="12"/>
+      <c r="E174" s="12">
+        <v>0</v>
+      </c>
       <c r="F174" s="12"/>
     </row>
     <row r="175" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="E175" s="12"/>
+      <c r="E175" s="12">
+        <v>0</v>
+      </c>
       <c r="F175" s="12"/>
     </row>
     <row r="176" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="8"/>
@@ -5461,60 +5865,66 @@
       </c>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="E177" s="12"/>
+        <v>697</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0</v>
+      </c>
       <c r="F177" s="12"/>
     </row>
     <row r="178" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="E178" s="12"/>
+        <v>682</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0</v>
+      </c>
       <c r="F178" s="12"/>
     </row>
     <row r="179" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C179" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="E179" s="12"/>
+        <v>497</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0</v>
+      </c>
       <c r="F179" s="12"/>
     </row>
     <row r="180" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="8"/>
@@ -5526,58 +5936,64 @@
     </row>
     <row r="181" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="E181" s="12"/>
+        <v>502</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0</v>
+      </c>
       <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E182" s="12"/>
+        <v>505</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0</v>
+      </c>
       <c r="F182" s="12"/>
     </row>
     <row r="183" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="E183" s="12"/>
+        <v>508</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0</v>
+      </c>
       <c r="F183" s="12"/>
     </row>
     <row r="184" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="8"/>
@@ -5589,58 +6005,64 @@
     </row>
     <row r="185" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D185" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="E185" s="12"/>
+      <c r="E185" s="12">
+        <v>0</v>
+      </c>
       <c r="F185" s="12"/>
     </row>
     <row r="186" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D186" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="E186" s="12"/>
+      <c r="E186" s="12">
+        <v>0</v>
+      </c>
       <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E187" s="12"/>
+      <c r="E187" s="12">
+        <v>0</v>
+      </c>
       <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="6"/>
@@ -5649,10 +6071,10 @@
     </row>
     <row r="189" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="8"/>
@@ -5664,58 +6086,64 @@
     </row>
     <row r="190" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E190" s="12"/>
+        <v>527</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
       <c r="F190" s="12"/>
     </row>
     <row r="191" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="D191" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E191" s="12"/>
+      <c r="E191" s="12">
+        <v>0</v>
+      </c>
       <c r="F191" s="12"/>
     </row>
     <row r="192" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E192" s="12"/>
+        <v>534</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0</v>
+      </c>
       <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="8"/>
@@ -5727,58 +6155,64 @@
     </row>
     <row r="194" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E194" s="12"/>
+        <v>539</v>
+      </c>
+      <c r="E194" s="12">
+        <v>0</v>
+      </c>
       <c r="F194" s="12"/>
     </row>
     <row r="195" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E195" s="12"/>
+        <v>539</v>
+      </c>
+      <c r="E195" s="12">
+        <v>0</v>
+      </c>
       <c r="F195" s="12"/>
     </row>
     <row r="196" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E196" s="12"/>
+        <v>539</v>
+      </c>
+      <c r="E196" s="12">
+        <v>0</v>
+      </c>
       <c r="F196" s="12"/>
     </row>
     <row r="197" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="8"/>
@@ -5790,58 +6224,64 @@
     </row>
     <row r="198" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D198" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="E198" s="12"/>
+      <c r="E198" s="12">
+        <v>0</v>
+      </c>
       <c r="F198" s="12"/>
     </row>
     <row r="199" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="E199" s="12"/>
+        <v>551</v>
+      </c>
+      <c r="E199" s="12">
+        <v>0</v>
+      </c>
       <c r="F199" s="12"/>
     </row>
     <row r="200" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="E200" s="12"/>
+        <v>554</v>
+      </c>
+      <c r="E200" s="12">
+        <v>0</v>
+      </c>
       <c r="F200" s="12"/>
     </row>
     <row r="201" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="8"/>
@@ -5853,58 +6293,64 @@
     </row>
     <row r="202" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="12"/>
+        <v>559</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0</v>
+      </c>
       <c r="F202" s="12"/>
     </row>
     <row r="203" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="E203" s="12"/>
+        <v>562</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0</v>
+      </c>
       <c r="F203" s="12"/>
     </row>
     <row r="204" spans="1:6" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D204" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E204" s="12"/>
+      <c r="E204" s="12">
+        <v>0</v>
+      </c>
       <c r="F204" s="12"/>
     </row>
     <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="8"/>
@@ -5916,58 +6362,64 @@
     </row>
     <row r="206" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E206" s="12"/>
+        <v>570</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0</v>
+      </c>
       <c r="F206" s="12"/>
     </row>
     <row r="207" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D207" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="E207" s="12"/>
+      <c r="E207" s="12">
+        <v>0</v>
+      </c>
       <c r="F207" s="12"/>
     </row>
     <row r="208" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="E208" s="12"/>
+        <v>576</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0</v>
+      </c>
       <c r="F208" s="12"/>
     </row>
     <row r="209" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="6"/>
@@ -5976,10 +6428,10 @@
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C210" s="20"/>
       <c r="D210" s="21"/>
@@ -5991,90 +6443,100 @@
     </row>
     <row r="211" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D211" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="B211" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D211" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="E211" s="12"/>
+      <c r="E211" s="12">
+        <v>0</v>
+      </c>
       <c r="F211" s="24"/>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="C212" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="D212" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="C212" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="E212" s="12"/>
+      <c r="E212" s="12">
+        <v>0</v>
+      </c>
       <c r="F212" s="24"/>
     </row>
     <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D213" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="B213" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="C213" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D213" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="E213" s="12"/>
+      <c r="E213" s="12">
+        <v>0</v>
+      </c>
       <c r="F213" s="24"/>
     </row>
     <row r="214" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D214" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B214" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="C214" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D214" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="E214" s="12"/>
+      <c r="E214" s="12">
+        <v>0</v>
+      </c>
       <c r="F214" s="24"/>
     </row>
     <row r="215" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D215" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B215" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="C215" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D215" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="E215" s="12"/>
+      <c r="E215" s="12">
+        <v>0</v>
+      </c>
       <c r="F215" s="24"/>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C216" s="25"/>
       <c r="D216" s="14"/>
@@ -6086,90 +6548,100 @@
     </row>
     <row r="217" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="B217" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D217" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="B217" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="C217" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E217" s="12"/>
+      <c r="E217" s="12">
+        <v>0</v>
+      </c>
       <c r="F217" s="24"/>
     </row>
     <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C218" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E218" s="12"/>
+        <v>604</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0</v>
+      </c>
       <c r="F218" s="24"/>
     </row>
     <row r="219" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D219" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="B219" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C219" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D219" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="E219" s="12"/>
+      <c r="E219" s="12">
+        <v>0</v>
+      </c>
       <c r="F219" s="24"/>
     </row>
     <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D220" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="B220" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="C220" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D220" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E220" s="12"/>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
       <c r="F220" s="24"/>
     </row>
     <row r="221" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D221" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="B221" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="C221" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="E221" s="12"/>
+      <c r="E221" s="12">
+        <v>0</v>
+      </c>
       <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C222" s="31"/>
       <c r="D222" s="14"/>
@@ -6181,90 +6653,100 @@
     </row>
     <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C223" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="E223" s="12"/>
+        <v>618</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0</v>
+      </c>
       <c r="F223" s="24"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C224" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="E224" s="12"/>
+        <v>621</v>
+      </c>
+      <c r="E224" s="12">
+        <v>0</v>
+      </c>
       <c r="F224" s="24"/>
     </row>
     <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C225" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="E225" s="12"/>
+        <v>624</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0</v>
+      </c>
       <c r="F225" s="24"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C226" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="E226" s="12"/>
+        <v>627</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0</v>
+      </c>
       <c r="F226" s="24"/>
     </row>
     <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C227" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="E227" s="12"/>
+        <v>630</v>
+      </c>
+      <c r="E227" s="12">
+        <v>0</v>
+      </c>
       <c r="F227" s="24"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C228" s="25"/>
       <c r="D228" s="14"/>
@@ -6276,90 +6758,100 @@
     </row>
     <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="E229" s="12"/>
+        <v>635</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0</v>
+      </c>
       <c r="F229" s="24"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="23" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="E230" s="12"/>
+        <v>638</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0</v>
+      </c>
       <c r="F230" s="24"/>
     </row>
     <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="23" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="E231" s="12"/>
+        <v>641</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0</v>
+      </c>
       <c r="F231" s="24"/>
     </row>
     <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="E232" s="12"/>
+        <v>644</v>
+      </c>
+      <c r="E232" s="12">
+        <v>0</v>
+      </c>
       <c r="F232" s="24"/>
     </row>
     <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C233" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>649</v>
-      </c>
-      <c r="E233" s="12"/>
+        <v>647</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0</v>
+      </c>
       <c r="F233" s="24"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C234" s="25"/>
       <c r="D234" s="14"/>
@@ -6371,90 +6863,100 @@
     </row>
     <row r="235" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C235" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>654</v>
-      </c>
-      <c r="E235" s="12"/>
+        <v>652</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0</v>
+      </c>
       <c r="F235" s="24"/>
     </row>
     <row r="236" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C236" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="E236" s="12"/>
+        <v>655</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0</v>
+      </c>
       <c r="F236" s="24"/>
     </row>
     <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C237" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="E237" s="12"/>
+        <v>658</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0</v>
+      </c>
       <c r="F237" s="24"/>
     </row>
     <row r="238" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C238" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="E238" s="12"/>
+        <v>661</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0</v>
+      </c>
       <c r="F238" s="24"/>
     </row>
     <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="23" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C239" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="E239" s="12"/>
+        <v>664</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0</v>
+      </c>
       <c r="F239" s="24"/>
     </row>
     <row r="240" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C240" s="25"/>
       <c r="D240" s="14"/>
@@ -6466,82 +6968,92 @@
     </row>
     <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C241" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="E241" s="12"/>
+        <v>669</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0</v>
+      </c>
       <c r="F241" s="24"/>
     </row>
     <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>674</v>
-      </c>
-      <c r="E242" s="12"/>
+        <v>672</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0</v>
+      </c>
       <c r="F242" s="24"/>
     </row>
     <row r="243" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C243" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="E243" s="12"/>
+        <v>675</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0</v>
+      </c>
       <c r="F243" s="24"/>
     </row>
     <row r="244" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C244" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="E244" s="12"/>
+        <v>678</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0</v>
+      </c>
       <c r="F244" s="24"/>
     </row>
     <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="B245" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="C245" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D245" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="B245" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="C245" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D245" s="23" t="s">
-        <v>683</v>
-      </c>
-      <c r="E245" s="12"/>
+      <c r="E245" s="12">
+        <v>0</v>
+      </c>
       <c r="F245" s="24"/>
     </row>
   </sheetData>
